--- a/GP_concept/gpyopt_test_results.xlsx
+++ b/GP_concept/gpyopt_test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoetan/Documents/Cambridge/IIB/Project/GP_concept/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD83F7A-9674-C14F-A9A1-05861D83D822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16014489-09F8-B749-A5E6-A667929DB74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acq funcs" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,11 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId10"/>
-    <pivotCache cacheId="32" r:id="rId11"/>
-    <pivotCache cacheId="65" r:id="rId12"/>
-    <pivotCache cacheId="72" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
+    <pivotCache cacheId="3" r:id="rId13"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -287,6 +286,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDADADA"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -299,1393 +303,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[gpyopt_test_results.xlsx]Sheet2!PivotTable2</c:name>
-    <c:fmtId val="14"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Comparing Acquisition Function Error</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="4"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="5"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="6"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="10"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="11"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="12"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="13"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="14"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$21:$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$23:$A$34</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="7"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>12</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>booth</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>one_dim</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>rastrigin</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>sphere</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$23:$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.21079528037525669</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1559823814780001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>123.8602273057042</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>587.89498104121935</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>748.25341237894668</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16179386378826732</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2583595406271646</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-807A-AC44-8FAB-0E4DE0CFE3E4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$C$21:$C$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LCB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$23:$A$34</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="7"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>12</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>booth</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>one_dim</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>rastrigin</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>sphere</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$C$23:$C$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.13855942507115154</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.33895783103119004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>122.26033840448906</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>443.31104080907267</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>568.87745875457438</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14814395229612248</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.5606327596364533</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-807A-AC44-8FAB-0E4DE0CFE3E4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$D$21:$D$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MPI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet2!$A$23:$A$34</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="7"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>12</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>booth</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>one_dim</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>rastrigin</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>sphere</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$D$23:$D$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.3132180991534048</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34060936438398998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>111.91545496453729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>496.20715968031078</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>623.73448082680625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33257076854705486</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4082743576150145</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-807A-AC44-8FAB-0E4DE0CFE3E4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2080692591"/>
-        <c:axId val="2081161791"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2080692591"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>functions and dimensions</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2081161791"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2081161791"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>y_opt error</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2080692591"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1400"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2808,6 +1425,1561 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1743740575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[gpyopt_test_results.xlsx]Sheet2!PivotTable2</c:name>
+    <c:fmtId val="16"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Comparing Acquisition Function Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$21:$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$23:$A$34</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>booth</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>one_dim</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>rastrigin</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>sphere</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$23:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.21079528037525669</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1559823814780001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123.8602273057042</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>587.89498104121935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>748.25341237894668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16179386378826732</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2583595406271646</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-807A-AC44-8FAB-0E4DE0CFE3E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$21:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LCB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$23:$A$34</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>booth</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>one_dim</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>rastrigin</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>sphere</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$23:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.13855942507115154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33895783103119004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.26033840448906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>443.31104080907267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>568.87745875457438</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14814395229612248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5606327596364533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-807A-AC44-8FAB-0E4DE0CFE3E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$21:$D$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet2!$A$23:$A$34</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="7"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>12</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>booth</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>one_dim</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>rastrigin</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>sphere</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$23:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.3132180991534048</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34060936438398998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.91545496453729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>496.20715968031078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>623.73448082680625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33257076854705486</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4082743576150145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-807A-AC44-8FAB-0E4DE0CFE3E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2080692591"/>
+        <c:axId val="2081161791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2080692591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>functions and dimensions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2081161791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2081161791"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>y_opt error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2080692591"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5723,6 +5895,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -5738,6 +5951,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -5753,6 +6007,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
@@ -5768,6 +6063,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -7863,6 +8199,13 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="DADADA"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -9122,7 +9465,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -10229,6 +10572,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -10715,11 +11114,21 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" vert="horz"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600"/>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB" sz="1600"/>
@@ -11117,7 +11526,7 @@
         <c:idx val="17"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -11137,6 +11546,15 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
@@ -11150,6 +11568,15 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
@@ -11163,71 +11590,15 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="20"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
             <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="21"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="22"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="23"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:delete val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="24"/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
@@ -11260,6 +11631,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -11298,7 +11678,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-E992-344A-AA29-CA986A1A94A6}"/>
+              <c16:uniqueId val="{00000002-7D43-2D46-9F16-F35E459F1574}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11316,6 +11696,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -11354,7 +11743,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-E992-344A-AA29-CA986A1A94A6}"/>
+              <c16:uniqueId val="{00000004-7D43-2D46-9F16-F35E459F1574}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11380,11 +11769,21 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
@@ -11405,7 +11804,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -11420,11 +11819,21 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -11460,15 +11869,25 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t> relative error</a:t>
+                  <a:t> time per iteration (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11494,11 +11913,21 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -11519,11 +11948,21 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" vert="horz"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -11534,12 +11973,984 @@
     <c:showDLblsOverMax val="0"/>
     <c:extLst/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="DADADA"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400" b="0"/>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[gpyopt_test_results.xlsx]Sheet1!PivotTable3</c:name>
+    <c:fmtId val="14"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600"/>
+              <a:t>Comparing Sparse and Non-sparse GP Models Relative Error</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:delete val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$22:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$24:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>booth</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>one_dim</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sphere</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.47301179906185836</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.97110044046305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.59551534052933164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D43-2D46-9F16-F35E459F1574}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$22:$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sparseGP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$24:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>booth</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>one_dim</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sphere</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.67074468491012906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1423353775555398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.44489658366125284</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7D43-2D46-9F16-F35E459F1574}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="704614752"/>
+        <c:axId val="777923904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="704614752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>function</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="777923904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="777923904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> time per iteration (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="704614752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="DADADA"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -14831,22 +16242,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93896F9B-1425-2A49-89D1-EBFFE48C81D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31BD6618-384F-9E47-978F-A8BFB8A1EBD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14866,23 +16277,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31BD6618-384F-9E47-978F-A8BFB8A1EBD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB410EA-4C0C-9847-B62E-6D643525FA28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15109,7 +16520,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>648716</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
@@ -15131,6 +16542,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1739900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>572516</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B261165C-F883-C64C-947B-2A556814B73E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -30627,1883 +32074,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B447657-0958-3E4A-B157-96F1579FF0FA}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
-  <location ref="A21:E34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item m="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="5">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item m="1" x="7"/>
-        <item m="1" x="9"/>
-        <item x="3"/>
-        <item m="1" x="10"/>
-        <item m="1" x="8"/>
-        <item m="1" x="11"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="407">
-        <item x="338"/>
-        <item x="266"/>
-        <item x="315"/>
-        <item x="302"/>
-        <item x="327"/>
-        <item x="236"/>
-        <item x="337"/>
-        <item x="303"/>
-        <item x="267"/>
-        <item x="212"/>
-        <item x="351"/>
-        <item x="232"/>
-        <item x="301"/>
-        <item x="128"/>
-        <item x="278"/>
-        <item x="84"/>
-        <item x="350"/>
-        <item x="265"/>
-        <item x="4"/>
-        <item x="56"/>
-        <item x="76"/>
-        <item x="132"/>
-        <item x="224"/>
-        <item x="136"/>
-        <item x="164"/>
-        <item x="277"/>
-        <item x="216"/>
-        <item x="112"/>
-        <item x="8"/>
-        <item x="116"/>
-        <item x="204"/>
-        <item x="80"/>
-        <item x="96"/>
-        <item x="176"/>
-        <item x="208"/>
-        <item x="88"/>
-        <item x="290"/>
-        <item x="228"/>
-        <item x="32"/>
-        <item x="172"/>
-        <item x="12"/>
-        <item x="124"/>
-        <item x="92"/>
-        <item x="188"/>
-        <item x="52"/>
-        <item x="0"/>
-        <item x="36"/>
-        <item x="120"/>
-        <item x="160"/>
-        <item x="192"/>
-        <item x="28"/>
-        <item x="168"/>
-        <item x="16"/>
-        <item x="72"/>
-        <item x="24"/>
-        <item x="108"/>
-        <item x="180"/>
-        <item x="100"/>
-        <item x="156"/>
-        <item x="184"/>
-        <item x="254"/>
-        <item x="20"/>
-        <item x="349"/>
-        <item x="316"/>
-        <item x="157"/>
-        <item x="152"/>
-        <item x="104"/>
-        <item x="48"/>
-        <item x="243"/>
-        <item x="196"/>
-        <item x="44"/>
-        <item x="291"/>
-        <item x="279"/>
-        <item x="140"/>
-        <item x="233"/>
-        <item x="40"/>
-        <item x="352"/>
-        <item x="341"/>
-        <item x="289"/>
-        <item x="325"/>
-        <item x="241"/>
-        <item x="225"/>
-        <item x="329"/>
-        <item x="326"/>
-        <item x="149"/>
-        <item x="60"/>
-        <item x="209"/>
-        <item x="148"/>
-        <item x="340"/>
-        <item x="269"/>
-        <item x="353"/>
-        <item x="73"/>
-        <item x="255"/>
-        <item x="304"/>
-        <item x="49"/>
-        <item x="53"/>
-        <item x="293"/>
-        <item x="328"/>
-        <item x="77"/>
-        <item x="237"/>
-        <item x="220"/>
-        <item x="133"/>
-        <item x="281"/>
-        <item x="17"/>
-        <item x="97"/>
-        <item x="217"/>
-        <item x="85"/>
-        <item x="292"/>
-        <item x="137"/>
-        <item x="177"/>
-        <item x="117"/>
-        <item x="129"/>
-        <item x="173"/>
-        <item x="5"/>
-        <item x="93"/>
-        <item x="1"/>
-        <item x="13"/>
-        <item x="33"/>
-        <item x="113"/>
-        <item x="57"/>
-        <item x="169"/>
-        <item x="9"/>
-        <item x="213"/>
-        <item x="37"/>
-        <item x="253"/>
-        <item x="197"/>
-        <item x="83"/>
-        <item x="229"/>
-        <item x="339"/>
-        <item x="121"/>
-        <item x="81"/>
-        <item x="45"/>
-        <item x="64"/>
-        <item x="161"/>
-        <item x="242"/>
-        <item x="244"/>
-        <item x="69"/>
-        <item x="89"/>
-        <item x="144"/>
-        <item x="294"/>
-        <item x="200"/>
-        <item x="314"/>
-        <item x="125"/>
-        <item x="282"/>
-        <item x="306"/>
-        <item x="41"/>
-        <item x="246"/>
-        <item x="68"/>
-        <item x="189"/>
-        <item x="280"/>
-        <item x="185"/>
-        <item x="205"/>
-        <item x="193"/>
-        <item x="270"/>
-        <item x="82"/>
-        <item x="153"/>
-        <item x="165"/>
-        <item x="65"/>
-        <item x="268"/>
-        <item x="305"/>
-        <item x="330"/>
-        <item x="308"/>
-        <item x="61"/>
-        <item x="313"/>
-        <item x="258"/>
-        <item x="356"/>
-        <item x="342"/>
-        <item x="141"/>
-        <item x="29"/>
-        <item x="354"/>
-        <item x="307"/>
-        <item x="234"/>
-        <item x="181"/>
-        <item x="25"/>
-        <item x="145"/>
-        <item x="343"/>
-        <item x="272"/>
-        <item x="318"/>
-        <item x="355"/>
-        <item x="21"/>
-        <item x="321"/>
-        <item x="256"/>
-        <item x="332"/>
-        <item x="109"/>
-        <item x="296"/>
-        <item x="344"/>
-        <item x="319"/>
-        <item x="150"/>
-        <item x="331"/>
-        <item x="333"/>
-        <item x="284"/>
-        <item x="218"/>
-        <item x="245"/>
-        <item x="70"/>
-        <item x="230"/>
-        <item x="206"/>
-        <item x="238"/>
-        <item x="78"/>
-        <item x="226"/>
-        <item x="74"/>
-        <item x="357"/>
-        <item x="130"/>
-        <item x="138"/>
-        <item x="54"/>
-        <item x="50"/>
-        <item x="174"/>
-        <item x="98"/>
-        <item x="201"/>
-        <item x="134"/>
-        <item x="2"/>
-        <item x="162"/>
-        <item x="58"/>
-        <item x="90"/>
-        <item x="86"/>
-        <item x="38"/>
-        <item x="178"/>
-        <item x="118"/>
-        <item x="18"/>
-        <item x="317"/>
-        <item x="10"/>
-        <item x="283"/>
-        <item x="198"/>
-        <item x="257"/>
-        <item x="210"/>
-        <item x="214"/>
-        <item x="170"/>
-        <item x="297"/>
-        <item x="158"/>
-        <item x="6"/>
-        <item x="14"/>
-        <item x="34"/>
-        <item x="154"/>
-        <item x="221"/>
-        <item x="94"/>
-        <item x="105"/>
-        <item x="126"/>
-        <item x="166"/>
-        <item x="271"/>
-        <item x="273"/>
-        <item x="261"/>
-        <item x="101"/>
-        <item x="30"/>
-        <item x="285"/>
-        <item x="46"/>
-        <item x="309"/>
-        <item x="320"/>
-        <item x="194"/>
-        <item x="146"/>
-        <item x="359"/>
-        <item x="260"/>
-        <item x="347"/>
-        <item x="311"/>
-        <item x="334"/>
-        <item x="247"/>
-        <item x="122"/>
-        <item x="389"/>
-        <item x="231"/>
-        <item x="142"/>
-        <item x="190"/>
-        <item x="397"/>
-        <item x="259"/>
-        <item x="335"/>
-        <item x="380"/>
-        <item x="249"/>
-        <item x="346"/>
-        <item x="322"/>
-        <item x="348"/>
-        <item x="248"/>
-        <item x="398"/>
-        <item x="227"/>
-        <item x="399"/>
-        <item x="295"/>
-        <item x="310"/>
-        <item x="358"/>
-        <item x="114"/>
-        <item x="370"/>
-        <item x="361"/>
-        <item x="323"/>
-        <item x="299"/>
-        <item x="363"/>
-        <item x="312"/>
-        <item x="62"/>
-        <item x="66"/>
-        <item x="151"/>
-        <item x="155"/>
-        <item x="388"/>
-        <item x="372"/>
-        <item x="345"/>
-        <item x="207"/>
-        <item x="75"/>
-        <item x="390"/>
-        <item x="159"/>
-        <item x="275"/>
-        <item x="79"/>
-        <item x="42"/>
-        <item x="287"/>
-        <item x="239"/>
-        <item x="219"/>
-        <item x="171"/>
-        <item x="71"/>
-        <item x="110"/>
-        <item x="379"/>
-        <item x="95"/>
-        <item x="11"/>
-        <item x="175"/>
-        <item x="3"/>
-        <item x="99"/>
-        <item x="15"/>
-        <item x="39"/>
-        <item x="235"/>
-        <item x="336"/>
-        <item x="87"/>
-        <item x="195"/>
-        <item x="26"/>
-        <item x="91"/>
-        <item x="35"/>
-        <item x="179"/>
-        <item x="163"/>
-        <item x="199"/>
-        <item x="131"/>
-        <item x="371"/>
-        <item x="362"/>
-        <item x="59"/>
-        <item x="215"/>
-        <item x="139"/>
-        <item x="55"/>
-        <item x="202"/>
-        <item x="182"/>
-        <item x="186"/>
-        <item x="119"/>
-        <item x="127"/>
-        <item x="211"/>
-        <item x="22"/>
-        <item x="51"/>
-        <item x="19"/>
-        <item x="135"/>
-        <item x="7"/>
-        <item x="381"/>
-        <item x="115"/>
-        <item x="222"/>
-        <item x="274"/>
-        <item x="47"/>
-        <item x="286"/>
-        <item x="263"/>
-        <item x="360"/>
-        <item x="252"/>
-        <item x="167"/>
-        <item x="191"/>
-        <item x="31"/>
-        <item x="288"/>
-        <item x="324"/>
-        <item x="264"/>
-        <item x="298"/>
-        <item x="250"/>
-        <item x="276"/>
-        <item x="147"/>
-        <item x="143"/>
-        <item x="106"/>
-        <item x="300"/>
-        <item x="111"/>
-        <item x="102"/>
-        <item x="63"/>
-        <item x="262"/>
-        <item x="123"/>
-        <item x="401"/>
-        <item x="383"/>
-        <item x="365"/>
-        <item x="392"/>
-        <item x="366"/>
-        <item x="391"/>
-        <item x="67"/>
-        <item x="400"/>
-        <item x="364"/>
-        <item x="373"/>
-        <item x="384"/>
-        <item x="382"/>
-        <item x="27"/>
-        <item x="223"/>
-        <item x="187"/>
-        <item x="402"/>
-        <item x="43"/>
-        <item x="183"/>
-        <item x="23"/>
-        <item x="203"/>
-        <item x="251"/>
-        <item x="393"/>
-        <item x="374"/>
-        <item x="103"/>
-        <item x="107"/>
-        <item x="375"/>
-        <item x="396"/>
-        <item x="405"/>
-        <item x="403"/>
-        <item x="378"/>
-        <item x="368"/>
-        <item x="395"/>
-        <item x="394"/>
-        <item x="404"/>
-        <item x="376"/>
-        <item x="369"/>
-        <item x="377"/>
-        <item x="387"/>
-        <item x="367"/>
-        <item x="385"/>
-        <item x="386"/>
-        <item x="240"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="407">
-        <item x="163"/>
-        <item x="3"/>
-        <item x="162"/>
-        <item x="2"/>
-        <item x="81"/>
-        <item x="83"/>
-        <item x="80"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="161"/>
-        <item x="11"/>
-        <item x="165"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="166"/>
-        <item x="143"/>
-        <item x="85"/>
-        <item x="9"/>
-        <item x="86"/>
-        <item x="164"/>
-        <item x="87"/>
-        <item x="16"/>
-        <item x="183"/>
-        <item x="171"/>
-        <item x="169"/>
-        <item x="182"/>
-        <item x="91"/>
-        <item x="103"/>
-        <item x="101"/>
-        <item x="84"/>
-        <item x="99"/>
-        <item x="178"/>
-        <item x="4"/>
-        <item x="19"/>
-        <item x="115"/>
-        <item x="98"/>
-        <item x="90"/>
-        <item x="23"/>
-        <item x="108"/>
-        <item x="95"/>
-        <item x="202"/>
-        <item x="107"/>
-        <item x="105"/>
-        <item x="203"/>
-        <item x="24"/>
-        <item x="42"/>
-        <item x="223"/>
-        <item x="121"/>
-        <item x="181"/>
-        <item x="41"/>
-        <item x="104"/>
-        <item x="142"/>
-        <item x="201"/>
-        <item x="22"/>
-        <item x="43"/>
-        <item x="222"/>
-        <item x="110"/>
-        <item x="102"/>
-        <item x="31"/>
-        <item x="26"/>
-        <item x="113"/>
-        <item x="47"/>
-        <item x="191"/>
-        <item x="186"/>
-        <item x="14"/>
-        <item x="27"/>
-        <item x="63"/>
-        <item x="62"/>
-        <item x="125"/>
-        <item x="21"/>
-        <item x="66"/>
-        <item x="106"/>
-        <item x="30"/>
-        <item x="187"/>
-        <item x="175"/>
-        <item x="126"/>
-        <item x="109"/>
-        <item x="173"/>
-        <item x="37"/>
-        <item x="127"/>
-        <item x="100"/>
-        <item x="25"/>
-        <item x="89"/>
-        <item x="32"/>
-        <item x="190"/>
-        <item x="120"/>
-        <item x="40"/>
-        <item x="94"/>
-        <item x="20"/>
-        <item x="114"/>
-        <item x="124"/>
-        <item x="192"/>
-        <item x="147"/>
-        <item x="67"/>
-        <item x="34"/>
-        <item x="199"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="146"/>
-        <item x="119"/>
-        <item x="207"/>
-        <item x="92"/>
-        <item x="51"/>
-        <item x="200"/>
-        <item x="12"/>
-        <item x="96"/>
-        <item x="35"/>
-        <item x="18"/>
-        <item x="177"/>
-        <item x="44"/>
-        <item x="174"/>
-        <item x="61"/>
-        <item x="176"/>
-        <item x="112"/>
-        <item x="195"/>
-        <item x="218"/>
-        <item x="130"/>
-        <item x="133"/>
-        <item x="145"/>
-        <item x="117"/>
-        <item x="225"/>
-        <item x="48"/>
-        <item x="28"/>
-        <item x="148"/>
-        <item x="206"/>
-        <item x="116"/>
-        <item x="141"/>
-        <item x="88"/>
-        <item x="137"/>
-        <item x="29"/>
-        <item x="97"/>
-        <item x="128"/>
-        <item x="50"/>
-        <item x="111"/>
-        <item x="15"/>
-        <item x="168"/>
-        <item x="65"/>
-        <item x="136"/>
-        <item x="93"/>
-        <item x="205"/>
-        <item x="170"/>
-        <item x="189"/>
-        <item x="179"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="160"/>
-        <item x="82"/>
-        <item x="167"/>
-        <item x="60"/>
-        <item x="8"/>
-        <item x="172"/>
-        <item x="194"/>
-        <item x="204"/>
-        <item x="13"/>
-        <item x="211"/>
-        <item x="129"/>
-        <item x="131"/>
-        <item x="49"/>
-        <item x="52"/>
-        <item x="138"/>
-        <item x="54"/>
-        <item x="208"/>
-        <item x="55"/>
-        <item x="135"/>
-        <item x="209"/>
-        <item x="220"/>
-        <item x="227"/>
-        <item x="210"/>
-        <item x="56"/>
-        <item x="64"/>
-        <item x="216"/>
-        <item x="58"/>
-        <item x="212"/>
-        <item x="180"/>
-        <item x="185"/>
-        <item x="33"/>
-        <item x="118"/>
-        <item x="215"/>
-        <item x="152"/>
-        <item x="221"/>
-        <item x="57"/>
-        <item x="139"/>
-        <item x="68"/>
-        <item x="214"/>
-        <item x="217"/>
-        <item x="213"/>
-        <item x="134"/>
-        <item x="151"/>
-        <item x="239"/>
-        <item x="144"/>
-        <item x="79"/>
-        <item x="226"/>
-        <item x="219"/>
-        <item x="70"/>
-        <item x="224"/>
-        <item x="53"/>
-        <item x="140"/>
-        <item x="155"/>
-        <item x="132"/>
-        <item x="38"/>
-        <item x="231"/>
-        <item x="72"/>
-        <item x="156"/>
-        <item x="149"/>
-        <item x="78"/>
-        <item x="150"/>
-        <item x="230"/>
-        <item x="75"/>
-        <item x="158"/>
-        <item x="236"/>
-        <item x="157"/>
-        <item x="235"/>
-        <item x="252"/>
-        <item x="39"/>
-        <item x="229"/>
-        <item x="74"/>
-        <item x="59"/>
-        <item x="76"/>
-        <item x="69"/>
-        <item x="233"/>
-        <item x="238"/>
-        <item x="228"/>
-        <item x="77"/>
-        <item x="154"/>
-        <item x="71"/>
-        <item x="234"/>
-        <item x="36"/>
-        <item x="153"/>
-        <item x="232"/>
-        <item x="73"/>
-        <item x="159"/>
-        <item x="289"/>
-        <item x="273"/>
-        <item x="263"/>
-        <item x="197"/>
-        <item x="237"/>
-        <item x="246"/>
-        <item x="290"/>
-        <item x="285"/>
-        <item x="274"/>
-        <item x="249"/>
-        <item x="262"/>
-        <item x="260"/>
-        <item x="198"/>
-        <item x="299"/>
-        <item x="298"/>
-        <item x="300"/>
-        <item x="264"/>
-        <item x="250"/>
-        <item x="193"/>
-        <item x="277"/>
-        <item x="367"/>
-        <item x="287"/>
-        <item x="259"/>
-        <item x="242"/>
-        <item x="280"/>
-        <item x="265"/>
-        <item x="336"/>
-        <item x="275"/>
-        <item x="282"/>
-        <item x="272"/>
-        <item x="288"/>
-        <item x="251"/>
-        <item x="276"/>
-        <item x="266"/>
-        <item x="295"/>
-        <item x="293"/>
-        <item x="297"/>
-        <item x="311"/>
-        <item x="286"/>
-        <item x="271"/>
-        <item x="254"/>
-        <item x="247"/>
-        <item x="269"/>
-        <item x="240"/>
-        <item x="258"/>
-        <item x="281"/>
-        <item x="291"/>
-        <item x="270"/>
-        <item x="268"/>
-        <item x="248"/>
-        <item x="245"/>
-        <item x="294"/>
-        <item x="253"/>
-        <item x="330"/>
-        <item x="278"/>
-        <item x="243"/>
-        <item x="356"/>
-        <item x="257"/>
-        <item x="244"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="334"/>
-        <item x="292"/>
-        <item x="319"/>
-        <item x="346"/>
-        <item x="400"/>
-        <item x="359"/>
-        <item x="312"/>
-        <item x="261"/>
-        <item x="241"/>
-        <item x="255"/>
-        <item x="296"/>
-        <item x="392"/>
-        <item x="320"/>
-        <item x="323"/>
-        <item x="256"/>
-        <item x="360"/>
-        <item x="279"/>
-        <item x="327"/>
-        <item x="339"/>
-        <item x="306"/>
-        <item x="391"/>
-        <item x="345"/>
-        <item x="310"/>
-        <item x="343"/>
-        <item x="387"/>
-        <item x="337"/>
-        <item x="303"/>
-        <item x="405"/>
-        <item x="267"/>
-        <item x="318"/>
-        <item x="341"/>
-        <item x="369"/>
-        <item x="377"/>
-        <item x="358"/>
-        <item x="381"/>
-        <item x="340"/>
-        <item x="324"/>
-        <item x="368"/>
-        <item x="317"/>
-        <item x="331"/>
-        <item x="326"/>
-        <item x="313"/>
-        <item x="335"/>
-        <item x="344"/>
-        <item x="347"/>
-        <item x="196"/>
-        <item x="361"/>
-        <item x="307"/>
-        <item x="309"/>
-        <item x="349"/>
-        <item x="389"/>
-        <item x="328"/>
-        <item x="351"/>
-        <item x="375"/>
-        <item x="333"/>
-        <item x="314"/>
-        <item x="302"/>
-        <item x="329"/>
-        <item x="390"/>
-        <item x="388"/>
-        <item x="376"/>
-        <item x="342"/>
-        <item x="378"/>
-        <item x="304"/>
-        <item x="398"/>
-        <item x="404"/>
-        <item x="393"/>
-        <item x="332"/>
-        <item x="357"/>
-        <item x="355"/>
-        <item x="305"/>
-        <item x="354"/>
-        <item x="352"/>
-        <item x="338"/>
-        <item x="403"/>
-        <item x="348"/>
-        <item x="402"/>
-        <item x="395"/>
-        <item x="394"/>
-        <item x="308"/>
-        <item x="383"/>
-        <item x="315"/>
-        <item x="322"/>
-        <item x="184"/>
-        <item x="350"/>
-        <item x="325"/>
-        <item x="399"/>
-        <item x="382"/>
-        <item x="316"/>
-        <item x="396"/>
-        <item x="188"/>
-        <item x="371"/>
-        <item x="370"/>
-        <item x="366"/>
-        <item x="373"/>
-        <item x="353"/>
-        <item x="379"/>
-        <item x="380"/>
-        <item x="365"/>
-        <item x="372"/>
-        <item x="301"/>
-        <item x="364"/>
-        <item x="386"/>
-        <item x="362"/>
-        <item x="397"/>
-        <item x="374"/>
-        <item x="321"/>
-        <item x="363"/>
-        <item x="401"/>
-        <item x="384"/>
-        <item x="385"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="407">
-        <item x="83"/>
-        <item x="81"/>
-        <item x="2"/>
-        <item x="162"/>
-        <item x="3"/>
-        <item x="163"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="80"/>
-        <item x="143"/>
-        <item x="1"/>
-        <item x="101"/>
-        <item x="183"/>
-        <item x="103"/>
-        <item x="161"/>
-        <item x="23"/>
-        <item x="182"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="164"/>
-        <item x="42"/>
-        <item x="223"/>
-        <item x="121"/>
-        <item x="41"/>
-        <item x="142"/>
-        <item x="201"/>
-        <item x="43"/>
-        <item x="222"/>
-        <item x="102"/>
-        <item x="0"/>
-        <item x="22"/>
-        <item x="5"/>
-        <item x="63"/>
-        <item x="126"/>
-        <item x="62"/>
-        <item x="66"/>
-        <item x="21"/>
-        <item x="87"/>
-        <item x="187"/>
-        <item x="181"/>
-        <item x="125"/>
-        <item x="7"/>
-        <item x="105"/>
-        <item x="24"/>
-        <item x="106"/>
-        <item x="166"/>
-        <item x="84"/>
-        <item x="25"/>
-        <item x="117"/>
-        <item x="85"/>
-        <item x="38"/>
-        <item x="165"/>
-        <item x="104"/>
-        <item x="100"/>
-        <item x="86"/>
-        <item x="39"/>
-        <item x="120"/>
-        <item x="40"/>
-        <item x="107"/>
-        <item x="186"/>
-        <item x="127"/>
-        <item x="20"/>
-        <item x="190"/>
-        <item x="27"/>
-        <item x="6"/>
-        <item x="45"/>
-        <item x="124"/>
-        <item x="47"/>
-        <item x="147"/>
-        <item x="146"/>
-        <item x="195"/>
-        <item x="67"/>
-        <item x="110"/>
-        <item x="207"/>
-        <item x="191"/>
-        <item x="51"/>
-        <item x="4"/>
-        <item x="26"/>
-        <item x="176"/>
-        <item x="200"/>
-        <item x="46"/>
-        <item x="82"/>
-        <item x="160"/>
-        <item x="167"/>
-        <item x="173"/>
-        <item x="172"/>
-        <item x="145"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="44"/>
-        <item x="61"/>
-        <item x="135"/>
-        <item x="174"/>
-        <item x="225"/>
-        <item x="206"/>
-        <item x="169"/>
-        <item x="35"/>
-        <item x="90"/>
-        <item x="114"/>
-        <item x="11"/>
-        <item x="113"/>
-        <item x="65"/>
-        <item x="175"/>
-        <item x="141"/>
-        <item x="205"/>
-        <item x="189"/>
-        <item x="130"/>
-        <item x="13"/>
-        <item x="235"/>
-        <item x="60"/>
-        <item x="209"/>
-        <item x="148"/>
-        <item x="49"/>
-        <item x="93"/>
-        <item x="99"/>
-        <item x="112"/>
-        <item x="128"/>
-        <item x="154"/>
-        <item x="115"/>
-        <item x="91"/>
-        <item x="227"/>
-        <item x="171"/>
-        <item x="89"/>
-        <item x="14"/>
-        <item x="64"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="204"/>
-        <item x="220"/>
-        <item x="17"/>
-        <item x="55"/>
-        <item x="108"/>
-        <item x="48"/>
-        <item x="237"/>
-        <item x="180"/>
-        <item x="37"/>
-        <item x="208"/>
-        <item x="69"/>
-        <item x="133"/>
-        <item x="32"/>
-        <item x="221"/>
-        <item x="185"/>
-        <item x="152"/>
-        <item x="19"/>
-        <item x="9"/>
-        <item x="131"/>
-        <item x="212"/>
-        <item x="151"/>
-        <item x="210"/>
-        <item x="197"/>
-        <item x="30"/>
-        <item x="12"/>
-        <item x="50"/>
-        <item x="144"/>
-        <item x="92"/>
-        <item x="33"/>
-        <item x="226"/>
-        <item x="168"/>
-        <item x="170"/>
-        <item x="211"/>
-        <item x="155"/>
-        <item x="178"/>
-        <item x="194"/>
-        <item x="36"/>
-        <item x="57"/>
-        <item x="109"/>
-        <item x="111"/>
-        <item x="140"/>
-        <item x="88"/>
-        <item x="233"/>
-        <item x="119"/>
-        <item x="179"/>
-        <item x="129"/>
-        <item x="224"/>
-        <item x="158"/>
-        <item x="138"/>
-        <item x="156"/>
-        <item x="15"/>
-        <item x="29"/>
-        <item x="199"/>
-        <item x="149"/>
-        <item x="139"/>
-        <item x="177"/>
-        <item x="132"/>
-        <item x="192"/>
-        <item x="134"/>
-        <item x="70"/>
-        <item x="219"/>
-        <item x="34"/>
-        <item x="68"/>
-        <item x="95"/>
-        <item x="213"/>
-        <item x="94"/>
-        <item x="214"/>
-        <item x="75"/>
-        <item x="232"/>
-        <item x="52"/>
-        <item x="229"/>
-        <item x="77"/>
-        <item x="153"/>
-        <item x="136"/>
-        <item x="74"/>
-        <item x="150"/>
-        <item x="236"/>
-        <item x="198"/>
-        <item x="16"/>
-        <item x="239"/>
-        <item x="79"/>
-        <item x="234"/>
-        <item x="231"/>
-        <item x="97"/>
-        <item x="54"/>
-        <item x="71"/>
-        <item x="98"/>
-        <item x="18"/>
-        <item x="53"/>
-        <item x="76"/>
-        <item x="56"/>
-        <item x="96"/>
-        <item x="228"/>
-        <item x="230"/>
-        <item x="116"/>
-        <item x="58"/>
-        <item x="215"/>
-        <item x="218"/>
-        <item x="217"/>
-        <item x="72"/>
-        <item x="137"/>
-        <item x="73"/>
-        <item x="216"/>
-        <item x="59"/>
-        <item x="274"/>
-        <item x="157"/>
-        <item x="249"/>
-        <item x="78"/>
-        <item x="263"/>
-        <item x="118"/>
-        <item x="238"/>
-        <item x="285"/>
-        <item x="159"/>
-        <item x="250"/>
-        <item x="262"/>
-        <item x="193"/>
-        <item x="260"/>
-        <item x="264"/>
-        <item x="298"/>
-        <item x="295"/>
-        <item x="259"/>
-        <item x="288"/>
-        <item x="251"/>
-        <item x="276"/>
-        <item x="252"/>
-        <item x="300"/>
-        <item x="280"/>
-        <item x="242"/>
-        <item x="246"/>
-        <item x="271"/>
-        <item x="286"/>
-        <item x="247"/>
-        <item x="336"/>
-        <item x="283"/>
-        <item x="248"/>
-        <item x="268"/>
-        <item x="270"/>
-        <item x="297"/>
-        <item x="289"/>
-        <item x="245"/>
-        <item x="258"/>
-        <item x="244"/>
-        <item x="287"/>
-        <item x="299"/>
-        <item x="294"/>
-        <item x="273"/>
-        <item x="272"/>
-        <item x="275"/>
-        <item x="266"/>
-        <item x="281"/>
-        <item x="269"/>
-        <item x="255"/>
-        <item x="253"/>
-        <item x="290"/>
-        <item x="261"/>
-        <item x="257"/>
-        <item x="256"/>
-        <item x="241"/>
-        <item x="284"/>
-        <item x="277"/>
-        <item x="254"/>
-        <item x="293"/>
-        <item x="282"/>
-        <item x="387"/>
-        <item x="278"/>
-        <item x="296"/>
-        <item x="265"/>
-        <item x="291"/>
-        <item x="243"/>
-        <item x="292"/>
-        <item x="267"/>
-        <item x="184"/>
-        <item x="279"/>
-        <item x="324"/>
-        <item x="334"/>
-        <item x="396"/>
-        <item x="188"/>
-        <item x="312"/>
-        <item x="309"/>
-        <item x="360"/>
-        <item x="305"/>
-        <item x="358"/>
-        <item x="354"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="311"/>
-        <item x="306"/>
-        <item x="369"/>
-        <item x="339"/>
-        <item x="356"/>
-        <item x="347"/>
-        <item x="359"/>
-        <item x="341"/>
-        <item x="346"/>
-        <item x="335"/>
-        <item x="307"/>
-        <item x="344"/>
-        <item x="352"/>
-        <item x="323"/>
-        <item x="402"/>
-        <item x="345"/>
-        <item x="357"/>
-        <item x="342"/>
-        <item x="308"/>
-        <item x="350"/>
-        <item x="378"/>
-        <item x="367"/>
-        <item x="310"/>
-        <item x="349"/>
-        <item x="316"/>
-        <item x="355"/>
-        <item x="348"/>
-        <item x="303"/>
-        <item x="196"/>
-        <item x="331"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="337"/>
-        <item x="317"/>
-        <item x="376"/>
-        <item x="332"/>
-        <item x="318"/>
-        <item x="328"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="343"/>
-        <item x="333"/>
-        <item x="315"/>
-        <item x="353"/>
-        <item x="338"/>
-        <item x="399"/>
-        <item x="340"/>
-        <item x="314"/>
-        <item x="304"/>
-        <item x="313"/>
-        <item x="322"/>
-        <item x="302"/>
-        <item x="351"/>
-        <item x="393"/>
-        <item x="327"/>
-        <item x="400"/>
-        <item x="321"/>
-        <item x="394"/>
-        <item x="377"/>
-        <item x="301"/>
-        <item x="368"/>
-        <item x="405"/>
-        <item x="240"/>
-        <item x="395"/>
-        <item x="373"/>
-        <item x="379"/>
-        <item x="381"/>
-        <item x="389"/>
-        <item x="374"/>
-        <item x="385"/>
-        <item x="390"/>
-        <item x="392"/>
-        <item x="403"/>
-        <item x="362"/>
-        <item x="366"/>
-        <item x="382"/>
-        <item x="364"/>
-        <item x="371"/>
-        <item x="375"/>
-        <item x="404"/>
-        <item x="383"/>
-        <item x="398"/>
-        <item x="361"/>
-        <item x="391"/>
-        <item x="365"/>
-        <item x="401"/>
-        <item x="380"/>
-        <item x="397"/>
-        <item x="363"/>
-        <item x="388"/>
-        <item x="384"/>
-        <item x="372"/>
-        <item x="386"/>
-        <item x="370"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="10" showAll="0">
-      <items count="407">
-        <item x="83"/>
-        <item x="81"/>
-        <item x="2"/>
-        <item x="162"/>
-        <item x="3"/>
-        <item x="163"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="80"/>
-        <item x="143"/>
-        <item x="1"/>
-        <item x="101"/>
-        <item x="183"/>
-        <item x="103"/>
-        <item x="161"/>
-        <item x="23"/>
-        <item x="182"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="164"/>
-        <item x="42"/>
-        <item x="223"/>
-        <item x="121"/>
-        <item x="41"/>
-        <item x="142"/>
-        <item x="201"/>
-        <item x="43"/>
-        <item x="222"/>
-        <item x="102"/>
-        <item x="0"/>
-        <item x="22"/>
-        <item x="5"/>
-        <item x="63"/>
-        <item x="126"/>
-        <item x="62"/>
-        <item x="66"/>
-        <item x="21"/>
-        <item x="87"/>
-        <item x="187"/>
-        <item x="181"/>
-        <item x="125"/>
-        <item x="7"/>
-        <item x="105"/>
-        <item x="274"/>
-        <item x="249"/>
-        <item x="24"/>
-        <item x="263"/>
-        <item x="106"/>
-        <item x="166"/>
-        <item x="84"/>
-        <item x="25"/>
-        <item x="117"/>
-        <item x="285"/>
-        <item x="85"/>
-        <item x="38"/>
-        <item x="250"/>
-        <item x="262"/>
-        <item x="165"/>
-        <item x="260"/>
-        <item x="104"/>
-        <item x="264"/>
-        <item x="100"/>
-        <item x="86"/>
-        <item x="39"/>
-        <item x="120"/>
-        <item x="40"/>
-        <item x="107"/>
-        <item x="298"/>
-        <item x="186"/>
-        <item x="127"/>
-        <item x="20"/>
-        <item x="190"/>
-        <item x="295"/>
-        <item x="259"/>
-        <item x="288"/>
-        <item x="27"/>
-        <item x="6"/>
-        <item x="251"/>
-        <item x="45"/>
-        <item x="124"/>
-        <item x="47"/>
-        <item x="276"/>
-        <item x="147"/>
-        <item x="252"/>
-        <item x="300"/>
-        <item x="146"/>
-        <item x="280"/>
-        <item x="195"/>
-        <item x="242"/>
-        <item x="67"/>
-        <item x="246"/>
-        <item x="271"/>
-        <item x="110"/>
-        <item x="286"/>
-        <item x="247"/>
-        <item x="207"/>
-        <item x="191"/>
-        <item x="336"/>
-        <item x="51"/>
-        <item x="4"/>
-        <item x="283"/>
-        <item x="26"/>
-        <item x="248"/>
-        <item x="176"/>
-        <item x="268"/>
-        <item x="200"/>
-        <item x="270"/>
-        <item x="297"/>
-        <item x="289"/>
-        <item x="46"/>
-        <item x="82"/>
-        <item x="160"/>
-        <item x="245"/>
-        <item x="258"/>
-        <item x="167"/>
-        <item x="244"/>
-        <item x="173"/>
-        <item x="287"/>
-        <item x="299"/>
-        <item x="172"/>
-        <item x="145"/>
-        <item x="294"/>
-        <item x="273"/>
-        <item x="272"/>
-        <item x="275"/>
-        <item x="266"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="44"/>
-        <item x="281"/>
-        <item x="269"/>
-        <item x="61"/>
-        <item x="135"/>
-        <item x="255"/>
-        <item x="253"/>
-        <item x="290"/>
-        <item x="174"/>
-        <item x="261"/>
-        <item x="257"/>
-        <item x="256"/>
-        <item x="225"/>
-        <item x="241"/>
-        <item x="284"/>
-        <item x="277"/>
-        <item x="254"/>
-        <item x="293"/>
-        <item x="206"/>
-        <item x="169"/>
-        <item x="282"/>
-        <item x="35"/>
-        <item x="387"/>
-        <item x="278"/>
-        <item x="90"/>
-        <item x="114"/>
-        <item x="11"/>
-        <item x="296"/>
-        <item x="265"/>
-        <item x="113"/>
-        <item x="291"/>
-        <item x="65"/>
-        <item x="243"/>
-        <item x="175"/>
-        <item x="141"/>
-        <item x="205"/>
-        <item x="292"/>
-        <item x="267"/>
-        <item x="189"/>
-        <item x="130"/>
-        <item x="13"/>
-        <item x="235"/>
-        <item x="60"/>
-        <item x="209"/>
-        <item x="148"/>
-        <item x="49"/>
-        <item x="93"/>
-        <item x="279"/>
-        <item x="99"/>
-        <item x="112"/>
-        <item x="324"/>
-        <item x="334"/>
-        <item x="128"/>
-        <item x="154"/>
-        <item x="115"/>
-        <item x="91"/>
-        <item x="227"/>
-        <item x="396"/>
-        <item x="171"/>
-        <item x="312"/>
-        <item x="89"/>
-        <item x="14"/>
-        <item x="64"/>
-        <item x="309"/>
-        <item x="28"/>
-        <item x="31"/>
-        <item x="360"/>
-        <item x="305"/>
-        <item x="358"/>
-        <item x="204"/>
-        <item x="354"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="220"/>
-        <item x="17"/>
-        <item x="55"/>
-        <item x="311"/>
-        <item x="306"/>
-        <item x="369"/>
-        <item x="339"/>
-        <item x="356"/>
-        <item x="347"/>
-        <item x="359"/>
-        <item x="341"/>
-        <item x="108"/>
-        <item x="48"/>
-        <item x="346"/>
-        <item x="335"/>
-        <item x="307"/>
-        <item x="344"/>
-        <item x="352"/>
-        <item x="323"/>
-        <item x="402"/>
-        <item x="345"/>
-        <item x="357"/>
-        <item x="342"/>
-        <item x="237"/>
-        <item x="308"/>
-        <item x="180"/>
-        <item x="350"/>
-        <item x="378"/>
-        <item x="367"/>
-        <item x="37"/>
-        <item x="208"/>
-        <item x="69"/>
-        <item x="310"/>
-        <item x="349"/>
-        <item x="133"/>
-        <item x="32"/>
-        <item x="316"/>
-        <item x="221"/>
-        <item x="355"/>
-        <item x="185"/>
-        <item x="348"/>
-        <item x="303"/>
-        <item x="152"/>
-        <item x="19"/>
-        <item x="9"/>
-        <item x="331"/>
-        <item x="131"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="337"/>
-        <item x="317"/>
-        <item x="376"/>
-        <item x="332"/>
-        <item x="318"/>
-        <item x="328"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="343"/>
-        <item x="212"/>
-        <item x="151"/>
-        <item x="333"/>
-        <item x="315"/>
-        <item x="210"/>
-        <item x="353"/>
-        <item x="338"/>
-        <item x="399"/>
-        <item x="197"/>
-        <item x="30"/>
-        <item x="340"/>
-        <item x="314"/>
-        <item x="12"/>
-        <item x="304"/>
-        <item x="50"/>
-        <item x="144"/>
-        <item x="92"/>
-        <item x="313"/>
-        <item x="322"/>
-        <item x="33"/>
-        <item x="302"/>
-        <item x="226"/>
-        <item x="351"/>
-        <item x="393"/>
-        <item x="168"/>
-        <item x="170"/>
-        <item x="211"/>
-        <item x="327"/>
-        <item x="155"/>
-        <item x="400"/>
-        <item x="321"/>
-        <item x="394"/>
-        <item x="178"/>
-        <item x="377"/>
-        <item x="194"/>
-        <item x="36"/>
-        <item x="301"/>
-        <item x="57"/>
-        <item x="368"/>
-        <item x="405"/>
-        <item x="109"/>
-        <item x="240"/>
-        <item x="111"/>
-        <item x="395"/>
-        <item x="140"/>
-        <item x="88"/>
-        <item x="233"/>
-        <item x="373"/>
-        <item x="119"/>
-        <item x="379"/>
-        <item x="179"/>
-        <item x="381"/>
-        <item x="389"/>
-        <item x="374"/>
-        <item x="385"/>
-        <item x="129"/>
-        <item x="224"/>
-        <item x="390"/>
-        <item x="158"/>
-        <item x="138"/>
-        <item x="156"/>
-        <item x="392"/>
-        <item x="15"/>
-        <item x="29"/>
-        <item x="403"/>
-        <item x="362"/>
-        <item x="366"/>
-        <item x="382"/>
-        <item x="364"/>
-        <item x="371"/>
-        <item x="375"/>
-        <item x="199"/>
-        <item x="404"/>
-        <item x="383"/>
-        <item x="149"/>
-        <item x="398"/>
-        <item x="139"/>
-        <item x="361"/>
-        <item x="391"/>
-        <item x="177"/>
-        <item x="132"/>
-        <item x="365"/>
-        <item x="192"/>
-        <item x="401"/>
-        <item x="380"/>
-        <item x="134"/>
-        <item x="70"/>
-        <item x="397"/>
-        <item x="363"/>
-        <item x="388"/>
-        <item x="384"/>
-        <item x="219"/>
-        <item x="34"/>
-        <item x="372"/>
-        <item x="68"/>
-        <item x="95"/>
-        <item x="386"/>
-        <item x="370"/>
-        <item x="213"/>
-        <item x="94"/>
-        <item x="214"/>
-        <item x="75"/>
-        <item x="232"/>
-        <item x="52"/>
-        <item x="229"/>
-        <item x="77"/>
-        <item x="153"/>
-        <item x="136"/>
-        <item x="74"/>
-        <item x="150"/>
-        <item x="236"/>
-        <item x="198"/>
-        <item x="16"/>
-        <item x="239"/>
-        <item x="79"/>
-        <item x="234"/>
-        <item x="231"/>
-        <item x="97"/>
-        <item x="54"/>
-        <item x="71"/>
-        <item x="98"/>
-        <item x="18"/>
-        <item x="53"/>
-        <item x="76"/>
-        <item x="56"/>
-        <item x="96"/>
-        <item x="228"/>
-        <item x="230"/>
-        <item x="116"/>
-        <item x="58"/>
-        <item x="215"/>
-        <item x="218"/>
-        <item x="217"/>
-        <item x="72"/>
-        <item x="137"/>
-        <item x="73"/>
-        <item x="216"/>
-        <item x="59"/>
-        <item x="157"/>
-        <item x="78"/>
-        <item x="118"/>
-        <item x="238"/>
-        <item x="159"/>
-        <item x="193"/>
-        <item x="184"/>
-        <item x="188"/>
-        <item x="196"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="1"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of diff to true f(x_opt)" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="9">
-    <chartFormat chart="4" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D620A48-4D75-3643-8B51-36E037751E7E}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D620A48-4D75-3643-8B51-36E037751E7E}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="29">
   <location ref="A3:E15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
@@ -34402,8 +33973,1920 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B447657-0958-3E4A-B157-96F1579FF0FA}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+  <location ref="A21:E34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item m="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item m="1" x="7"/>
+        <item m="1" x="9"/>
+        <item x="3"/>
+        <item m="1" x="10"/>
+        <item m="1" x="8"/>
+        <item m="1" x="11"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="407">
+        <item x="338"/>
+        <item x="266"/>
+        <item x="315"/>
+        <item x="302"/>
+        <item x="327"/>
+        <item x="236"/>
+        <item x="337"/>
+        <item x="303"/>
+        <item x="267"/>
+        <item x="212"/>
+        <item x="351"/>
+        <item x="232"/>
+        <item x="301"/>
+        <item x="128"/>
+        <item x="278"/>
+        <item x="84"/>
+        <item x="350"/>
+        <item x="265"/>
+        <item x="4"/>
+        <item x="56"/>
+        <item x="76"/>
+        <item x="132"/>
+        <item x="224"/>
+        <item x="136"/>
+        <item x="164"/>
+        <item x="277"/>
+        <item x="216"/>
+        <item x="112"/>
+        <item x="8"/>
+        <item x="116"/>
+        <item x="204"/>
+        <item x="80"/>
+        <item x="96"/>
+        <item x="176"/>
+        <item x="208"/>
+        <item x="88"/>
+        <item x="290"/>
+        <item x="228"/>
+        <item x="32"/>
+        <item x="172"/>
+        <item x="12"/>
+        <item x="124"/>
+        <item x="92"/>
+        <item x="188"/>
+        <item x="52"/>
+        <item x="0"/>
+        <item x="36"/>
+        <item x="120"/>
+        <item x="160"/>
+        <item x="192"/>
+        <item x="28"/>
+        <item x="168"/>
+        <item x="16"/>
+        <item x="72"/>
+        <item x="24"/>
+        <item x="108"/>
+        <item x="180"/>
+        <item x="100"/>
+        <item x="156"/>
+        <item x="184"/>
+        <item x="254"/>
+        <item x="20"/>
+        <item x="349"/>
+        <item x="316"/>
+        <item x="157"/>
+        <item x="152"/>
+        <item x="104"/>
+        <item x="48"/>
+        <item x="243"/>
+        <item x="196"/>
+        <item x="44"/>
+        <item x="291"/>
+        <item x="279"/>
+        <item x="140"/>
+        <item x="233"/>
+        <item x="40"/>
+        <item x="352"/>
+        <item x="341"/>
+        <item x="289"/>
+        <item x="325"/>
+        <item x="241"/>
+        <item x="225"/>
+        <item x="329"/>
+        <item x="326"/>
+        <item x="149"/>
+        <item x="60"/>
+        <item x="209"/>
+        <item x="148"/>
+        <item x="340"/>
+        <item x="269"/>
+        <item x="353"/>
+        <item x="73"/>
+        <item x="255"/>
+        <item x="304"/>
+        <item x="49"/>
+        <item x="53"/>
+        <item x="293"/>
+        <item x="328"/>
+        <item x="77"/>
+        <item x="237"/>
+        <item x="220"/>
+        <item x="133"/>
+        <item x="281"/>
+        <item x="17"/>
+        <item x="97"/>
+        <item x="217"/>
+        <item x="85"/>
+        <item x="292"/>
+        <item x="137"/>
+        <item x="177"/>
+        <item x="117"/>
+        <item x="129"/>
+        <item x="173"/>
+        <item x="5"/>
+        <item x="93"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="33"/>
+        <item x="113"/>
+        <item x="57"/>
+        <item x="169"/>
+        <item x="9"/>
+        <item x="213"/>
+        <item x="37"/>
+        <item x="253"/>
+        <item x="197"/>
+        <item x="83"/>
+        <item x="229"/>
+        <item x="339"/>
+        <item x="121"/>
+        <item x="81"/>
+        <item x="45"/>
+        <item x="64"/>
+        <item x="161"/>
+        <item x="242"/>
+        <item x="244"/>
+        <item x="69"/>
+        <item x="89"/>
+        <item x="144"/>
+        <item x="294"/>
+        <item x="200"/>
+        <item x="314"/>
+        <item x="125"/>
+        <item x="282"/>
+        <item x="306"/>
+        <item x="41"/>
+        <item x="246"/>
+        <item x="68"/>
+        <item x="189"/>
+        <item x="280"/>
+        <item x="185"/>
+        <item x="205"/>
+        <item x="193"/>
+        <item x="270"/>
+        <item x="82"/>
+        <item x="153"/>
+        <item x="165"/>
+        <item x="65"/>
+        <item x="268"/>
+        <item x="305"/>
+        <item x="330"/>
+        <item x="308"/>
+        <item x="61"/>
+        <item x="313"/>
+        <item x="258"/>
+        <item x="356"/>
+        <item x="342"/>
+        <item x="141"/>
+        <item x="29"/>
+        <item x="354"/>
+        <item x="307"/>
+        <item x="234"/>
+        <item x="181"/>
+        <item x="25"/>
+        <item x="145"/>
+        <item x="343"/>
+        <item x="272"/>
+        <item x="318"/>
+        <item x="355"/>
+        <item x="21"/>
+        <item x="321"/>
+        <item x="256"/>
+        <item x="332"/>
+        <item x="109"/>
+        <item x="296"/>
+        <item x="344"/>
+        <item x="319"/>
+        <item x="150"/>
+        <item x="331"/>
+        <item x="333"/>
+        <item x="284"/>
+        <item x="218"/>
+        <item x="245"/>
+        <item x="70"/>
+        <item x="230"/>
+        <item x="206"/>
+        <item x="238"/>
+        <item x="78"/>
+        <item x="226"/>
+        <item x="74"/>
+        <item x="357"/>
+        <item x="130"/>
+        <item x="138"/>
+        <item x="54"/>
+        <item x="50"/>
+        <item x="174"/>
+        <item x="98"/>
+        <item x="201"/>
+        <item x="134"/>
+        <item x="2"/>
+        <item x="162"/>
+        <item x="58"/>
+        <item x="90"/>
+        <item x="86"/>
+        <item x="38"/>
+        <item x="178"/>
+        <item x="118"/>
+        <item x="18"/>
+        <item x="317"/>
+        <item x="10"/>
+        <item x="283"/>
+        <item x="198"/>
+        <item x="257"/>
+        <item x="210"/>
+        <item x="214"/>
+        <item x="170"/>
+        <item x="297"/>
+        <item x="158"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="34"/>
+        <item x="154"/>
+        <item x="221"/>
+        <item x="94"/>
+        <item x="105"/>
+        <item x="126"/>
+        <item x="166"/>
+        <item x="271"/>
+        <item x="273"/>
+        <item x="261"/>
+        <item x="101"/>
+        <item x="30"/>
+        <item x="285"/>
+        <item x="46"/>
+        <item x="309"/>
+        <item x="320"/>
+        <item x="194"/>
+        <item x="146"/>
+        <item x="359"/>
+        <item x="260"/>
+        <item x="347"/>
+        <item x="311"/>
+        <item x="334"/>
+        <item x="247"/>
+        <item x="122"/>
+        <item x="389"/>
+        <item x="231"/>
+        <item x="142"/>
+        <item x="190"/>
+        <item x="397"/>
+        <item x="259"/>
+        <item x="335"/>
+        <item x="380"/>
+        <item x="249"/>
+        <item x="346"/>
+        <item x="322"/>
+        <item x="348"/>
+        <item x="248"/>
+        <item x="398"/>
+        <item x="227"/>
+        <item x="399"/>
+        <item x="295"/>
+        <item x="310"/>
+        <item x="358"/>
+        <item x="114"/>
+        <item x="370"/>
+        <item x="361"/>
+        <item x="323"/>
+        <item x="299"/>
+        <item x="363"/>
+        <item x="312"/>
+        <item x="62"/>
+        <item x="66"/>
+        <item x="151"/>
+        <item x="155"/>
+        <item x="388"/>
+        <item x="372"/>
+        <item x="345"/>
+        <item x="207"/>
+        <item x="75"/>
+        <item x="390"/>
+        <item x="159"/>
+        <item x="275"/>
+        <item x="79"/>
+        <item x="42"/>
+        <item x="287"/>
+        <item x="239"/>
+        <item x="219"/>
+        <item x="171"/>
+        <item x="71"/>
+        <item x="110"/>
+        <item x="379"/>
+        <item x="95"/>
+        <item x="11"/>
+        <item x="175"/>
+        <item x="3"/>
+        <item x="99"/>
+        <item x="15"/>
+        <item x="39"/>
+        <item x="235"/>
+        <item x="336"/>
+        <item x="87"/>
+        <item x="195"/>
+        <item x="26"/>
+        <item x="91"/>
+        <item x="35"/>
+        <item x="179"/>
+        <item x="163"/>
+        <item x="199"/>
+        <item x="131"/>
+        <item x="371"/>
+        <item x="362"/>
+        <item x="59"/>
+        <item x="215"/>
+        <item x="139"/>
+        <item x="55"/>
+        <item x="202"/>
+        <item x="182"/>
+        <item x="186"/>
+        <item x="119"/>
+        <item x="127"/>
+        <item x="211"/>
+        <item x="22"/>
+        <item x="51"/>
+        <item x="19"/>
+        <item x="135"/>
+        <item x="7"/>
+        <item x="381"/>
+        <item x="115"/>
+        <item x="222"/>
+        <item x="274"/>
+        <item x="47"/>
+        <item x="286"/>
+        <item x="263"/>
+        <item x="360"/>
+        <item x="252"/>
+        <item x="167"/>
+        <item x="191"/>
+        <item x="31"/>
+        <item x="288"/>
+        <item x="324"/>
+        <item x="264"/>
+        <item x="298"/>
+        <item x="250"/>
+        <item x="276"/>
+        <item x="147"/>
+        <item x="143"/>
+        <item x="106"/>
+        <item x="300"/>
+        <item x="111"/>
+        <item x="102"/>
+        <item x="63"/>
+        <item x="262"/>
+        <item x="123"/>
+        <item x="401"/>
+        <item x="383"/>
+        <item x="365"/>
+        <item x="392"/>
+        <item x="366"/>
+        <item x="391"/>
+        <item x="67"/>
+        <item x="400"/>
+        <item x="364"/>
+        <item x="373"/>
+        <item x="384"/>
+        <item x="382"/>
+        <item x="27"/>
+        <item x="223"/>
+        <item x="187"/>
+        <item x="402"/>
+        <item x="43"/>
+        <item x="183"/>
+        <item x="23"/>
+        <item x="203"/>
+        <item x="251"/>
+        <item x="393"/>
+        <item x="374"/>
+        <item x="103"/>
+        <item x="107"/>
+        <item x="375"/>
+        <item x="396"/>
+        <item x="405"/>
+        <item x="403"/>
+        <item x="378"/>
+        <item x="368"/>
+        <item x="395"/>
+        <item x="394"/>
+        <item x="404"/>
+        <item x="376"/>
+        <item x="369"/>
+        <item x="377"/>
+        <item x="387"/>
+        <item x="367"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="240"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="407">
+        <item x="163"/>
+        <item x="3"/>
+        <item x="162"/>
+        <item x="2"/>
+        <item x="81"/>
+        <item x="83"/>
+        <item x="80"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="161"/>
+        <item x="11"/>
+        <item x="165"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="166"/>
+        <item x="143"/>
+        <item x="85"/>
+        <item x="9"/>
+        <item x="86"/>
+        <item x="164"/>
+        <item x="87"/>
+        <item x="16"/>
+        <item x="183"/>
+        <item x="171"/>
+        <item x="169"/>
+        <item x="182"/>
+        <item x="91"/>
+        <item x="103"/>
+        <item x="101"/>
+        <item x="84"/>
+        <item x="99"/>
+        <item x="178"/>
+        <item x="4"/>
+        <item x="19"/>
+        <item x="115"/>
+        <item x="98"/>
+        <item x="90"/>
+        <item x="23"/>
+        <item x="108"/>
+        <item x="95"/>
+        <item x="202"/>
+        <item x="107"/>
+        <item x="105"/>
+        <item x="203"/>
+        <item x="24"/>
+        <item x="42"/>
+        <item x="223"/>
+        <item x="121"/>
+        <item x="181"/>
+        <item x="41"/>
+        <item x="104"/>
+        <item x="142"/>
+        <item x="201"/>
+        <item x="22"/>
+        <item x="43"/>
+        <item x="222"/>
+        <item x="110"/>
+        <item x="102"/>
+        <item x="31"/>
+        <item x="26"/>
+        <item x="113"/>
+        <item x="47"/>
+        <item x="191"/>
+        <item x="186"/>
+        <item x="14"/>
+        <item x="27"/>
+        <item x="63"/>
+        <item x="62"/>
+        <item x="125"/>
+        <item x="21"/>
+        <item x="66"/>
+        <item x="106"/>
+        <item x="30"/>
+        <item x="187"/>
+        <item x="175"/>
+        <item x="126"/>
+        <item x="109"/>
+        <item x="173"/>
+        <item x="37"/>
+        <item x="127"/>
+        <item x="100"/>
+        <item x="25"/>
+        <item x="89"/>
+        <item x="32"/>
+        <item x="190"/>
+        <item x="120"/>
+        <item x="40"/>
+        <item x="94"/>
+        <item x="20"/>
+        <item x="114"/>
+        <item x="124"/>
+        <item x="192"/>
+        <item x="147"/>
+        <item x="67"/>
+        <item x="34"/>
+        <item x="199"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="146"/>
+        <item x="119"/>
+        <item x="207"/>
+        <item x="92"/>
+        <item x="51"/>
+        <item x="200"/>
+        <item x="12"/>
+        <item x="96"/>
+        <item x="35"/>
+        <item x="18"/>
+        <item x="177"/>
+        <item x="44"/>
+        <item x="174"/>
+        <item x="61"/>
+        <item x="176"/>
+        <item x="112"/>
+        <item x="195"/>
+        <item x="218"/>
+        <item x="130"/>
+        <item x="133"/>
+        <item x="145"/>
+        <item x="117"/>
+        <item x="225"/>
+        <item x="48"/>
+        <item x="28"/>
+        <item x="148"/>
+        <item x="206"/>
+        <item x="116"/>
+        <item x="141"/>
+        <item x="88"/>
+        <item x="137"/>
+        <item x="29"/>
+        <item x="97"/>
+        <item x="128"/>
+        <item x="50"/>
+        <item x="111"/>
+        <item x="15"/>
+        <item x="168"/>
+        <item x="65"/>
+        <item x="136"/>
+        <item x="93"/>
+        <item x="205"/>
+        <item x="170"/>
+        <item x="189"/>
+        <item x="179"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="160"/>
+        <item x="82"/>
+        <item x="167"/>
+        <item x="60"/>
+        <item x="8"/>
+        <item x="172"/>
+        <item x="194"/>
+        <item x="204"/>
+        <item x="13"/>
+        <item x="211"/>
+        <item x="129"/>
+        <item x="131"/>
+        <item x="49"/>
+        <item x="52"/>
+        <item x="138"/>
+        <item x="54"/>
+        <item x="208"/>
+        <item x="55"/>
+        <item x="135"/>
+        <item x="209"/>
+        <item x="220"/>
+        <item x="227"/>
+        <item x="210"/>
+        <item x="56"/>
+        <item x="64"/>
+        <item x="216"/>
+        <item x="58"/>
+        <item x="212"/>
+        <item x="180"/>
+        <item x="185"/>
+        <item x="33"/>
+        <item x="118"/>
+        <item x="215"/>
+        <item x="152"/>
+        <item x="221"/>
+        <item x="57"/>
+        <item x="139"/>
+        <item x="68"/>
+        <item x="214"/>
+        <item x="217"/>
+        <item x="213"/>
+        <item x="134"/>
+        <item x="151"/>
+        <item x="239"/>
+        <item x="144"/>
+        <item x="79"/>
+        <item x="226"/>
+        <item x="219"/>
+        <item x="70"/>
+        <item x="224"/>
+        <item x="53"/>
+        <item x="140"/>
+        <item x="155"/>
+        <item x="132"/>
+        <item x="38"/>
+        <item x="231"/>
+        <item x="72"/>
+        <item x="156"/>
+        <item x="149"/>
+        <item x="78"/>
+        <item x="150"/>
+        <item x="230"/>
+        <item x="75"/>
+        <item x="158"/>
+        <item x="236"/>
+        <item x="157"/>
+        <item x="235"/>
+        <item x="252"/>
+        <item x="39"/>
+        <item x="229"/>
+        <item x="74"/>
+        <item x="59"/>
+        <item x="76"/>
+        <item x="69"/>
+        <item x="233"/>
+        <item x="238"/>
+        <item x="228"/>
+        <item x="77"/>
+        <item x="154"/>
+        <item x="71"/>
+        <item x="234"/>
+        <item x="36"/>
+        <item x="153"/>
+        <item x="232"/>
+        <item x="73"/>
+        <item x="159"/>
+        <item x="289"/>
+        <item x="273"/>
+        <item x="263"/>
+        <item x="197"/>
+        <item x="237"/>
+        <item x="246"/>
+        <item x="290"/>
+        <item x="285"/>
+        <item x="274"/>
+        <item x="249"/>
+        <item x="262"/>
+        <item x="260"/>
+        <item x="198"/>
+        <item x="299"/>
+        <item x="298"/>
+        <item x="300"/>
+        <item x="264"/>
+        <item x="250"/>
+        <item x="193"/>
+        <item x="277"/>
+        <item x="367"/>
+        <item x="287"/>
+        <item x="259"/>
+        <item x="242"/>
+        <item x="280"/>
+        <item x="265"/>
+        <item x="336"/>
+        <item x="275"/>
+        <item x="282"/>
+        <item x="272"/>
+        <item x="288"/>
+        <item x="251"/>
+        <item x="276"/>
+        <item x="266"/>
+        <item x="295"/>
+        <item x="293"/>
+        <item x="297"/>
+        <item x="311"/>
+        <item x="286"/>
+        <item x="271"/>
+        <item x="254"/>
+        <item x="247"/>
+        <item x="269"/>
+        <item x="240"/>
+        <item x="258"/>
+        <item x="281"/>
+        <item x="291"/>
+        <item x="270"/>
+        <item x="268"/>
+        <item x="248"/>
+        <item x="245"/>
+        <item x="294"/>
+        <item x="253"/>
+        <item x="330"/>
+        <item x="278"/>
+        <item x="243"/>
+        <item x="356"/>
+        <item x="257"/>
+        <item x="244"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="334"/>
+        <item x="292"/>
+        <item x="319"/>
+        <item x="346"/>
+        <item x="400"/>
+        <item x="359"/>
+        <item x="312"/>
+        <item x="261"/>
+        <item x="241"/>
+        <item x="255"/>
+        <item x="296"/>
+        <item x="392"/>
+        <item x="320"/>
+        <item x="323"/>
+        <item x="256"/>
+        <item x="360"/>
+        <item x="279"/>
+        <item x="327"/>
+        <item x="339"/>
+        <item x="306"/>
+        <item x="391"/>
+        <item x="345"/>
+        <item x="310"/>
+        <item x="343"/>
+        <item x="387"/>
+        <item x="337"/>
+        <item x="303"/>
+        <item x="405"/>
+        <item x="267"/>
+        <item x="318"/>
+        <item x="341"/>
+        <item x="369"/>
+        <item x="377"/>
+        <item x="358"/>
+        <item x="381"/>
+        <item x="340"/>
+        <item x="324"/>
+        <item x="368"/>
+        <item x="317"/>
+        <item x="331"/>
+        <item x="326"/>
+        <item x="313"/>
+        <item x="335"/>
+        <item x="344"/>
+        <item x="347"/>
+        <item x="196"/>
+        <item x="361"/>
+        <item x="307"/>
+        <item x="309"/>
+        <item x="349"/>
+        <item x="389"/>
+        <item x="328"/>
+        <item x="351"/>
+        <item x="375"/>
+        <item x="333"/>
+        <item x="314"/>
+        <item x="302"/>
+        <item x="329"/>
+        <item x="390"/>
+        <item x="388"/>
+        <item x="376"/>
+        <item x="342"/>
+        <item x="378"/>
+        <item x="304"/>
+        <item x="398"/>
+        <item x="404"/>
+        <item x="393"/>
+        <item x="332"/>
+        <item x="357"/>
+        <item x="355"/>
+        <item x="305"/>
+        <item x="354"/>
+        <item x="352"/>
+        <item x="338"/>
+        <item x="403"/>
+        <item x="348"/>
+        <item x="402"/>
+        <item x="395"/>
+        <item x="394"/>
+        <item x="308"/>
+        <item x="383"/>
+        <item x="315"/>
+        <item x="322"/>
+        <item x="184"/>
+        <item x="350"/>
+        <item x="325"/>
+        <item x="399"/>
+        <item x="382"/>
+        <item x="316"/>
+        <item x="396"/>
+        <item x="188"/>
+        <item x="371"/>
+        <item x="370"/>
+        <item x="366"/>
+        <item x="373"/>
+        <item x="353"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="365"/>
+        <item x="372"/>
+        <item x="301"/>
+        <item x="364"/>
+        <item x="386"/>
+        <item x="362"/>
+        <item x="397"/>
+        <item x="374"/>
+        <item x="321"/>
+        <item x="363"/>
+        <item x="401"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="407">
+        <item x="83"/>
+        <item x="81"/>
+        <item x="2"/>
+        <item x="162"/>
+        <item x="3"/>
+        <item x="163"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="80"/>
+        <item x="143"/>
+        <item x="1"/>
+        <item x="101"/>
+        <item x="183"/>
+        <item x="103"/>
+        <item x="161"/>
+        <item x="23"/>
+        <item x="182"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="164"/>
+        <item x="42"/>
+        <item x="223"/>
+        <item x="121"/>
+        <item x="41"/>
+        <item x="142"/>
+        <item x="201"/>
+        <item x="43"/>
+        <item x="222"/>
+        <item x="102"/>
+        <item x="0"/>
+        <item x="22"/>
+        <item x="5"/>
+        <item x="63"/>
+        <item x="126"/>
+        <item x="62"/>
+        <item x="66"/>
+        <item x="21"/>
+        <item x="87"/>
+        <item x="187"/>
+        <item x="181"/>
+        <item x="125"/>
+        <item x="7"/>
+        <item x="105"/>
+        <item x="24"/>
+        <item x="106"/>
+        <item x="166"/>
+        <item x="84"/>
+        <item x="25"/>
+        <item x="117"/>
+        <item x="85"/>
+        <item x="38"/>
+        <item x="165"/>
+        <item x="104"/>
+        <item x="100"/>
+        <item x="86"/>
+        <item x="39"/>
+        <item x="120"/>
+        <item x="40"/>
+        <item x="107"/>
+        <item x="186"/>
+        <item x="127"/>
+        <item x="20"/>
+        <item x="190"/>
+        <item x="27"/>
+        <item x="6"/>
+        <item x="45"/>
+        <item x="124"/>
+        <item x="47"/>
+        <item x="147"/>
+        <item x="146"/>
+        <item x="195"/>
+        <item x="67"/>
+        <item x="110"/>
+        <item x="207"/>
+        <item x="191"/>
+        <item x="51"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="176"/>
+        <item x="200"/>
+        <item x="46"/>
+        <item x="82"/>
+        <item x="160"/>
+        <item x="167"/>
+        <item x="173"/>
+        <item x="172"/>
+        <item x="145"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="44"/>
+        <item x="61"/>
+        <item x="135"/>
+        <item x="174"/>
+        <item x="225"/>
+        <item x="206"/>
+        <item x="169"/>
+        <item x="35"/>
+        <item x="90"/>
+        <item x="114"/>
+        <item x="11"/>
+        <item x="113"/>
+        <item x="65"/>
+        <item x="175"/>
+        <item x="141"/>
+        <item x="205"/>
+        <item x="189"/>
+        <item x="130"/>
+        <item x="13"/>
+        <item x="235"/>
+        <item x="60"/>
+        <item x="209"/>
+        <item x="148"/>
+        <item x="49"/>
+        <item x="93"/>
+        <item x="99"/>
+        <item x="112"/>
+        <item x="128"/>
+        <item x="154"/>
+        <item x="115"/>
+        <item x="91"/>
+        <item x="227"/>
+        <item x="171"/>
+        <item x="89"/>
+        <item x="14"/>
+        <item x="64"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="204"/>
+        <item x="220"/>
+        <item x="17"/>
+        <item x="55"/>
+        <item x="108"/>
+        <item x="48"/>
+        <item x="237"/>
+        <item x="180"/>
+        <item x="37"/>
+        <item x="208"/>
+        <item x="69"/>
+        <item x="133"/>
+        <item x="32"/>
+        <item x="221"/>
+        <item x="185"/>
+        <item x="152"/>
+        <item x="19"/>
+        <item x="9"/>
+        <item x="131"/>
+        <item x="212"/>
+        <item x="151"/>
+        <item x="210"/>
+        <item x="197"/>
+        <item x="30"/>
+        <item x="12"/>
+        <item x="50"/>
+        <item x="144"/>
+        <item x="92"/>
+        <item x="33"/>
+        <item x="226"/>
+        <item x="168"/>
+        <item x="170"/>
+        <item x="211"/>
+        <item x="155"/>
+        <item x="178"/>
+        <item x="194"/>
+        <item x="36"/>
+        <item x="57"/>
+        <item x="109"/>
+        <item x="111"/>
+        <item x="140"/>
+        <item x="88"/>
+        <item x="233"/>
+        <item x="119"/>
+        <item x="179"/>
+        <item x="129"/>
+        <item x="224"/>
+        <item x="158"/>
+        <item x="138"/>
+        <item x="156"/>
+        <item x="15"/>
+        <item x="29"/>
+        <item x="199"/>
+        <item x="149"/>
+        <item x="139"/>
+        <item x="177"/>
+        <item x="132"/>
+        <item x="192"/>
+        <item x="134"/>
+        <item x="70"/>
+        <item x="219"/>
+        <item x="34"/>
+        <item x="68"/>
+        <item x="95"/>
+        <item x="213"/>
+        <item x="94"/>
+        <item x="214"/>
+        <item x="75"/>
+        <item x="232"/>
+        <item x="52"/>
+        <item x="229"/>
+        <item x="77"/>
+        <item x="153"/>
+        <item x="136"/>
+        <item x="74"/>
+        <item x="150"/>
+        <item x="236"/>
+        <item x="198"/>
+        <item x="16"/>
+        <item x="239"/>
+        <item x="79"/>
+        <item x="234"/>
+        <item x="231"/>
+        <item x="97"/>
+        <item x="54"/>
+        <item x="71"/>
+        <item x="98"/>
+        <item x="18"/>
+        <item x="53"/>
+        <item x="76"/>
+        <item x="56"/>
+        <item x="96"/>
+        <item x="228"/>
+        <item x="230"/>
+        <item x="116"/>
+        <item x="58"/>
+        <item x="215"/>
+        <item x="218"/>
+        <item x="217"/>
+        <item x="72"/>
+        <item x="137"/>
+        <item x="73"/>
+        <item x="216"/>
+        <item x="59"/>
+        <item x="274"/>
+        <item x="157"/>
+        <item x="249"/>
+        <item x="78"/>
+        <item x="263"/>
+        <item x="118"/>
+        <item x="238"/>
+        <item x="285"/>
+        <item x="159"/>
+        <item x="250"/>
+        <item x="262"/>
+        <item x="193"/>
+        <item x="260"/>
+        <item x="264"/>
+        <item x="298"/>
+        <item x="295"/>
+        <item x="259"/>
+        <item x="288"/>
+        <item x="251"/>
+        <item x="276"/>
+        <item x="252"/>
+        <item x="300"/>
+        <item x="280"/>
+        <item x="242"/>
+        <item x="246"/>
+        <item x="271"/>
+        <item x="286"/>
+        <item x="247"/>
+        <item x="336"/>
+        <item x="283"/>
+        <item x="248"/>
+        <item x="268"/>
+        <item x="270"/>
+        <item x="297"/>
+        <item x="289"/>
+        <item x="245"/>
+        <item x="258"/>
+        <item x="244"/>
+        <item x="287"/>
+        <item x="299"/>
+        <item x="294"/>
+        <item x="273"/>
+        <item x="272"/>
+        <item x="275"/>
+        <item x="266"/>
+        <item x="281"/>
+        <item x="269"/>
+        <item x="255"/>
+        <item x="253"/>
+        <item x="290"/>
+        <item x="261"/>
+        <item x="257"/>
+        <item x="256"/>
+        <item x="241"/>
+        <item x="284"/>
+        <item x="277"/>
+        <item x="254"/>
+        <item x="293"/>
+        <item x="282"/>
+        <item x="387"/>
+        <item x="278"/>
+        <item x="296"/>
+        <item x="265"/>
+        <item x="291"/>
+        <item x="243"/>
+        <item x="292"/>
+        <item x="267"/>
+        <item x="184"/>
+        <item x="279"/>
+        <item x="324"/>
+        <item x="334"/>
+        <item x="396"/>
+        <item x="188"/>
+        <item x="312"/>
+        <item x="309"/>
+        <item x="360"/>
+        <item x="305"/>
+        <item x="358"/>
+        <item x="354"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="311"/>
+        <item x="306"/>
+        <item x="369"/>
+        <item x="339"/>
+        <item x="356"/>
+        <item x="347"/>
+        <item x="359"/>
+        <item x="341"/>
+        <item x="346"/>
+        <item x="335"/>
+        <item x="307"/>
+        <item x="344"/>
+        <item x="352"/>
+        <item x="323"/>
+        <item x="402"/>
+        <item x="345"/>
+        <item x="357"/>
+        <item x="342"/>
+        <item x="308"/>
+        <item x="350"/>
+        <item x="378"/>
+        <item x="367"/>
+        <item x="310"/>
+        <item x="349"/>
+        <item x="316"/>
+        <item x="355"/>
+        <item x="348"/>
+        <item x="303"/>
+        <item x="196"/>
+        <item x="331"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="337"/>
+        <item x="317"/>
+        <item x="376"/>
+        <item x="332"/>
+        <item x="318"/>
+        <item x="328"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="343"/>
+        <item x="333"/>
+        <item x="315"/>
+        <item x="353"/>
+        <item x="338"/>
+        <item x="399"/>
+        <item x="340"/>
+        <item x="314"/>
+        <item x="304"/>
+        <item x="313"/>
+        <item x="322"/>
+        <item x="302"/>
+        <item x="351"/>
+        <item x="393"/>
+        <item x="327"/>
+        <item x="400"/>
+        <item x="321"/>
+        <item x="394"/>
+        <item x="377"/>
+        <item x="301"/>
+        <item x="368"/>
+        <item x="405"/>
+        <item x="240"/>
+        <item x="395"/>
+        <item x="373"/>
+        <item x="379"/>
+        <item x="381"/>
+        <item x="389"/>
+        <item x="374"/>
+        <item x="385"/>
+        <item x="390"/>
+        <item x="392"/>
+        <item x="403"/>
+        <item x="362"/>
+        <item x="366"/>
+        <item x="382"/>
+        <item x="364"/>
+        <item x="371"/>
+        <item x="375"/>
+        <item x="404"/>
+        <item x="383"/>
+        <item x="398"/>
+        <item x="361"/>
+        <item x="391"/>
+        <item x="365"/>
+        <item x="401"/>
+        <item x="380"/>
+        <item x="397"/>
+        <item x="363"/>
+        <item x="388"/>
+        <item x="384"/>
+        <item x="372"/>
+        <item x="386"/>
+        <item x="370"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="10" showAll="0">
+      <items count="407">
+        <item x="83"/>
+        <item x="81"/>
+        <item x="2"/>
+        <item x="162"/>
+        <item x="3"/>
+        <item x="163"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="80"/>
+        <item x="143"/>
+        <item x="1"/>
+        <item x="101"/>
+        <item x="183"/>
+        <item x="103"/>
+        <item x="161"/>
+        <item x="23"/>
+        <item x="182"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="164"/>
+        <item x="42"/>
+        <item x="223"/>
+        <item x="121"/>
+        <item x="41"/>
+        <item x="142"/>
+        <item x="201"/>
+        <item x="43"/>
+        <item x="222"/>
+        <item x="102"/>
+        <item x="0"/>
+        <item x="22"/>
+        <item x="5"/>
+        <item x="63"/>
+        <item x="126"/>
+        <item x="62"/>
+        <item x="66"/>
+        <item x="21"/>
+        <item x="87"/>
+        <item x="187"/>
+        <item x="181"/>
+        <item x="125"/>
+        <item x="7"/>
+        <item x="105"/>
+        <item x="274"/>
+        <item x="249"/>
+        <item x="24"/>
+        <item x="263"/>
+        <item x="106"/>
+        <item x="166"/>
+        <item x="84"/>
+        <item x="25"/>
+        <item x="117"/>
+        <item x="285"/>
+        <item x="85"/>
+        <item x="38"/>
+        <item x="250"/>
+        <item x="262"/>
+        <item x="165"/>
+        <item x="260"/>
+        <item x="104"/>
+        <item x="264"/>
+        <item x="100"/>
+        <item x="86"/>
+        <item x="39"/>
+        <item x="120"/>
+        <item x="40"/>
+        <item x="107"/>
+        <item x="298"/>
+        <item x="186"/>
+        <item x="127"/>
+        <item x="20"/>
+        <item x="190"/>
+        <item x="295"/>
+        <item x="259"/>
+        <item x="288"/>
+        <item x="27"/>
+        <item x="6"/>
+        <item x="251"/>
+        <item x="45"/>
+        <item x="124"/>
+        <item x="47"/>
+        <item x="276"/>
+        <item x="147"/>
+        <item x="252"/>
+        <item x="300"/>
+        <item x="146"/>
+        <item x="280"/>
+        <item x="195"/>
+        <item x="242"/>
+        <item x="67"/>
+        <item x="246"/>
+        <item x="271"/>
+        <item x="110"/>
+        <item x="286"/>
+        <item x="247"/>
+        <item x="207"/>
+        <item x="191"/>
+        <item x="336"/>
+        <item x="51"/>
+        <item x="4"/>
+        <item x="283"/>
+        <item x="26"/>
+        <item x="248"/>
+        <item x="176"/>
+        <item x="268"/>
+        <item x="200"/>
+        <item x="270"/>
+        <item x="297"/>
+        <item x="289"/>
+        <item x="46"/>
+        <item x="82"/>
+        <item x="160"/>
+        <item x="245"/>
+        <item x="258"/>
+        <item x="167"/>
+        <item x="244"/>
+        <item x="173"/>
+        <item x="287"/>
+        <item x="299"/>
+        <item x="172"/>
+        <item x="145"/>
+        <item x="294"/>
+        <item x="273"/>
+        <item x="272"/>
+        <item x="275"/>
+        <item x="266"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="44"/>
+        <item x="281"/>
+        <item x="269"/>
+        <item x="61"/>
+        <item x="135"/>
+        <item x="255"/>
+        <item x="253"/>
+        <item x="290"/>
+        <item x="174"/>
+        <item x="261"/>
+        <item x="257"/>
+        <item x="256"/>
+        <item x="225"/>
+        <item x="241"/>
+        <item x="284"/>
+        <item x="277"/>
+        <item x="254"/>
+        <item x="293"/>
+        <item x="206"/>
+        <item x="169"/>
+        <item x="282"/>
+        <item x="35"/>
+        <item x="387"/>
+        <item x="278"/>
+        <item x="90"/>
+        <item x="114"/>
+        <item x="11"/>
+        <item x="296"/>
+        <item x="265"/>
+        <item x="113"/>
+        <item x="291"/>
+        <item x="65"/>
+        <item x="243"/>
+        <item x="175"/>
+        <item x="141"/>
+        <item x="205"/>
+        <item x="292"/>
+        <item x="267"/>
+        <item x="189"/>
+        <item x="130"/>
+        <item x="13"/>
+        <item x="235"/>
+        <item x="60"/>
+        <item x="209"/>
+        <item x="148"/>
+        <item x="49"/>
+        <item x="93"/>
+        <item x="279"/>
+        <item x="99"/>
+        <item x="112"/>
+        <item x="324"/>
+        <item x="334"/>
+        <item x="128"/>
+        <item x="154"/>
+        <item x="115"/>
+        <item x="91"/>
+        <item x="227"/>
+        <item x="396"/>
+        <item x="171"/>
+        <item x="312"/>
+        <item x="89"/>
+        <item x="14"/>
+        <item x="64"/>
+        <item x="309"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="360"/>
+        <item x="305"/>
+        <item x="358"/>
+        <item x="204"/>
+        <item x="354"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="220"/>
+        <item x="17"/>
+        <item x="55"/>
+        <item x="311"/>
+        <item x="306"/>
+        <item x="369"/>
+        <item x="339"/>
+        <item x="356"/>
+        <item x="347"/>
+        <item x="359"/>
+        <item x="341"/>
+        <item x="108"/>
+        <item x="48"/>
+        <item x="346"/>
+        <item x="335"/>
+        <item x="307"/>
+        <item x="344"/>
+        <item x="352"/>
+        <item x="323"/>
+        <item x="402"/>
+        <item x="345"/>
+        <item x="357"/>
+        <item x="342"/>
+        <item x="237"/>
+        <item x="308"/>
+        <item x="180"/>
+        <item x="350"/>
+        <item x="378"/>
+        <item x="367"/>
+        <item x="37"/>
+        <item x="208"/>
+        <item x="69"/>
+        <item x="310"/>
+        <item x="349"/>
+        <item x="133"/>
+        <item x="32"/>
+        <item x="316"/>
+        <item x="221"/>
+        <item x="355"/>
+        <item x="185"/>
+        <item x="348"/>
+        <item x="303"/>
+        <item x="152"/>
+        <item x="19"/>
+        <item x="9"/>
+        <item x="331"/>
+        <item x="131"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="337"/>
+        <item x="317"/>
+        <item x="376"/>
+        <item x="332"/>
+        <item x="318"/>
+        <item x="328"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="343"/>
+        <item x="212"/>
+        <item x="151"/>
+        <item x="333"/>
+        <item x="315"/>
+        <item x="210"/>
+        <item x="353"/>
+        <item x="338"/>
+        <item x="399"/>
+        <item x="197"/>
+        <item x="30"/>
+        <item x="340"/>
+        <item x="314"/>
+        <item x="12"/>
+        <item x="304"/>
+        <item x="50"/>
+        <item x="144"/>
+        <item x="92"/>
+        <item x="313"/>
+        <item x="322"/>
+        <item x="33"/>
+        <item x="302"/>
+        <item x="226"/>
+        <item x="351"/>
+        <item x="393"/>
+        <item x="168"/>
+        <item x="170"/>
+        <item x="211"/>
+        <item x="327"/>
+        <item x="155"/>
+        <item x="400"/>
+        <item x="321"/>
+        <item x="394"/>
+        <item x="178"/>
+        <item x="377"/>
+        <item x="194"/>
+        <item x="36"/>
+        <item x="301"/>
+        <item x="57"/>
+        <item x="368"/>
+        <item x="405"/>
+        <item x="109"/>
+        <item x="240"/>
+        <item x="111"/>
+        <item x="395"/>
+        <item x="140"/>
+        <item x="88"/>
+        <item x="233"/>
+        <item x="373"/>
+        <item x="119"/>
+        <item x="379"/>
+        <item x="179"/>
+        <item x="381"/>
+        <item x="389"/>
+        <item x="374"/>
+        <item x="385"/>
+        <item x="129"/>
+        <item x="224"/>
+        <item x="390"/>
+        <item x="158"/>
+        <item x="138"/>
+        <item x="156"/>
+        <item x="392"/>
+        <item x="15"/>
+        <item x="29"/>
+        <item x="403"/>
+        <item x="362"/>
+        <item x="366"/>
+        <item x="382"/>
+        <item x="364"/>
+        <item x="371"/>
+        <item x="375"/>
+        <item x="199"/>
+        <item x="404"/>
+        <item x="383"/>
+        <item x="149"/>
+        <item x="398"/>
+        <item x="139"/>
+        <item x="361"/>
+        <item x="391"/>
+        <item x="177"/>
+        <item x="132"/>
+        <item x="365"/>
+        <item x="192"/>
+        <item x="401"/>
+        <item x="380"/>
+        <item x="134"/>
+        <item x="70"/>
+        <item x="397"/>
+        <item x="363"/>
+        <item x="388"/>
+        <item x="384"/>
+        <item x="219"/>
+        <item x="34"/>
+        <item x="372"/>
+        <item x="68"/>
+        <item x="95"/>
+        <item x="386"/>
+        <item x="370"/>
+        <item x="213"/>
+        <item x="94"/>
+        <item x="214"/>
+        <item x="75"/>
+        <item x="232"/>
+        <item x="52"/>
+        <item x="229"/>
+        <item x="77"/>
+        <item x="153"/>
+        <item x="136"/>
+        <item x="74"/>
+        <item x="150"/>
+        <item x="236"/>
+        <item x="198"/>
+        <item x="16"/>
+        <item x="239"/>
+        <item x="79"/>
+        <item x="234"/>
+        <item x="231"/>
+        <item x="97"/>
+        <item x="54"/>
+        <item x="71"/>
+        <item x="98"/>
+        <item x="18"/>
+        <item x="53"/>
+        <item x="76"/>
+        <item x="56"/>
+        <item x="96"/>
+        <item x="228"/>
+        <item x="230"/>
+        <item x="116"/>
+        <item x="58"/>
+        <item x="215"/>
+        <item x="218"/>
+        <item x="217"/>
+        <item x="72"/>
+        <item x="137"/>
+        <item x="73"/>
+        <item x="216"/>
+        <item x="59"/>
+        <item x="157"/>
+        <item x="78"/>
+        <item x="118"/>
+        <item x="238"/>
+        <item x="159"/>
+        <item x="193"/>
+        <item x="184"/>
+        <item x="188"/>
+        <item x="196"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of diff to true f(x_opt)" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="12">
+    <chartFormat chart="4" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6B1CF9A-79EA-394B-99A8-D193074409F5}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6B1CF9A-79EA-394B-99A8-D193074409F5}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:F21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisCol" showAll="0">
@@ -34644,7 +36127,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86C63994-F3F1-D045-8999-7D03A95D2BAC}" name="PivotTable1" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{86C63994-F3F1-D045-8999-7D03A95D2BAC}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="A24:H42" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -34883,7 +36366,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF141DD3-2A4F-9542-B746-377359E18FC3}" name="PivotTable5" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF141DD3-2A4F-9542-B746-377359E18FC3}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A1:H19" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -35104,7 +36587,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0223B62E-2E80-FD4D-A4CD-D9E1C0DE3A3A}" name="PivotTable5" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0223B62E-2E80-FD4D-A4CD-D9E1C0DE3A3A}" name="PivotTable5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A25:D31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -35339,7 +36822,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EFC1043F-D9DE-0B47-BD60-B4FDF9CE6A9E}" name="PivotTable4" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EFC1043F-D9DE-0B47-BD60-B4FDF9CE6A9E}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -35469,7 +36952,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A38F768-E86E-9C44-9BDB-C338084BAFD2}" name="PivotTable3" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A38F768-E86E-9C44-9BDB-C338084BAFD2}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
   <location ref="A22:D27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -35548,17 +37031,20 @@
   <dataFields count="1">
     <dataField name="Average of relative error" fld="12" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="3">
-    <chartFormat chart="1" format="22" series="1">
+  <chartFormats count="4">
+    <chartFormat chart="1" format="19" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="2">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="23" series="1">
+    <chartFormat chart="1" format="20" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -35570,7 +37056,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="24" series="1">
+    <chartFormat chart="14" format="21" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -35578,6 +37064,18 @@
           </reference>
           <reference field="10" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -35596,7 +37094,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D82370-684B-8647-BF5D-343D67B556DC}" name="PivotTable2" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3D82370-684B-8647-BF5D-343D67B556DC}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="A3:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -35675,7 +37173,7 @@
   <dataFields count="1">
     <dataField name="Average of time per iteration" fld="11" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="7">
     <chartFormat chart="0" format="12" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -35686,6 +37184,66 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="18" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -54084,7 +55642,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -68941,7 +70499,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -75756,9 +77314,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -79214,8 +80772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A469BEA-3EF6-924B-92DB-21565ACEC0E2}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
